--- a/Leamington.xlsx
+++ b/Leamington.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>can you see this ok? And… can you check it out, amend it &amp; reinsert it? Try that, and I'll tell you what you changed…</t>
   </si>
@@ -150,12 +150,48 @@
   </si>
   <si>
     <t>best not to have any personal/important info in here</t>
+  </si>
+  <si>
+    <t>There is one in there that we asked them to leave until we can afford another one (also been looking on freecycle)</t>
+  </si>
+  <si>
+    <t>:Same as above - looking on freecycle</t>
+  </si>
+  <si>
+    <t>got one</t>
+  </si>
+  <si>
+    <t>Doing tonight/today</t>
+  </si>
+  <si>
+    <t>see above</t>
+  </si>
+  <si>
+    <t>6-8 weeks after leaving house</t>
+  </si>
+  <si>
+    <t>Loked on money supermarket but need to know current supplier before we can switch</t>
+  </si>
+  <si>
+    <t>Need to sort</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>No thanks, that’s extra money and I saw a virgin fibre optic thing there so don’t think I need line rental.</t>
+  </si>
+  <si>
+    <t>need to pay £1042.5 deposit. Also need to pay £195 + VAT admin, £25 +VAT for deposit protection £50 +VAT check out fee (was annoyed about that) and half a months rent as Ive already paid half (£347.5). Will upload the breakdown seperately</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -261,6 +297,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +610,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E2"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +785,9 @@
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
@@ -753,24 +800,30 @@
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -779,11 +832,15 @@
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -792,11 +849,15 @@
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -829,6 +890,7 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -838,7 +900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E6"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,7 +955,9 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -915,7 +979,9 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -937,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +1019,7 @@
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -970,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -983,9 +1049,11 @@
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -998,9 +1066,11 @@
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1013,9 +1083,15 @@
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="17">
+        <f>1042.5+(195*1.2)+(25*1.2)+(50*1.2)+347.5</f>
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1028,9 +1104,11 @@
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1038,15 +1116,18 @@
         <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Leamington.xlsx
+++ b/Leamington.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="10515" windowHeight="11565"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="10515" windowHeight="11565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="guide" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>can you see this ok? And… can you check it out, amend it &amp; reinsert it? Try that, and I'll tell you what you changed…</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>need to pay £1042.5 deposit. Also need to pay £195 + VAT admin, £25 +VAT for deposit protection £50 +VAT check out fee (was annoyed about that) and half a months rent as Ive already paid half (£347.5). Will upload the breakdown seperately</t>
+  </si>
+  <si>
+    <t>OMG</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +217,13 @@
       <name val="Wingdings 2"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,6 +314,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1003,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1032,7 @@
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1036,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1053,7 +1066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1070,7 +1083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1090,8 +1103,11 @@
         <f>1042.5+(195*1.2)+(25*1.2)+(50*1.2)+347.5</f>
         <v>1714</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1108,7 +1124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1127,7 +1143,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Leamington.xlsx
+++ b/Leamington.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>can you see this ok? And… can you check it out, amend it &amp; reinsert it? Try that, and I'll tell you what you changed…</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>OMG</t>
+  </si>
+  <si>
+    <t>ITS LOTS!</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +224,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -318,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,11 +1029,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1045,7 @@
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1066,7 +1079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1083,7 +1096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1106,8 +1119,11 @@
       <c r="G4" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1124,7 +1140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
